--- a/biology/Botanique/Chêne_de_Thor/Chêne_de_Thor.xlsx
+++ b/biology/Botanique/Chêne_de_Thor/Chêne_de_Thor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Thor</t>
+          <t>Chêne_de_Thor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne de Thor, également appelé chêne de Donar ou encore chêne de Jupiter, est un arbre sacré, vénéré par les peuples germaniques des Chattes, installés autour de ce qui est aujourd’hui la région de Hesse, en Allemagne.
 Selon l'hagiographie chrétienne, au VIIIe siècle, le missionnaire Boniface de Mayence fait abattre l'arbre afin de symboliser la supériorité du christianisme sur les rites païens. Le bois du chêne aurait ensuite été utilisé pour construire une église sur le site dédié à saint Pierre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Thor</t>
+          <t>Chêne_de_Thor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>La vie de saint Boniface selon Willibald</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Willibald d'Eichstätt, l’abattage de l’arbre, ordonné par Boniface, se produit lors du VIIIe siècle, dans un endroit connu sous le nom de Gaesmere, localisé en Hesse. Bien qu’aucune date ne soit fournie par l’hagiographie, l’abattage semble avoir eu lieu autour de 723 ou 724.
 </t>
